--- a/src/cfop/analysis.xlsx
+++ b/src/cfop/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>cross moves</t>
     <phoneticPr fontId="1"/>
@@ -273,6 +273,54 @@
   </si>
   <si>
     <t>U' R B' D U' F2 R' U2 L U L' U L U' L' U' R' U R U2 R' F L F' L' F' R2 U R' U R' F R F' U F' U2 F' L F L' U' L' U' L U' F R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L R U D B L R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D R' B D' R' B' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U2 R2 U R2 U R U L U' L F' L' F L' L' U' L R' U2 R U2 R' U R U2 L' U' L U L' U' L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R U R' U R U' B U' B' R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D R' B D' R' B' L' R' U2 R2 U R2 U R U L U' L F' L' F L2 U' L R' U2 R U2 R' U R U2 L' U' L U L' U' L U2 R U R' U R U' B U' B' R' U' R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2 U R U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U R' F U' R U R' U F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' F R U R' U' F2 L' U' L U F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' L2 R U R' F U' R U R' U F' U' F R U R' U' F2 L' U' L U F U2 R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R U2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -611,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
@@ -1115,6 +1163,112 @@
         <v>1698</v>
       </c>
     </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>584</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10">
+        <v>17</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10">
+        <v>67</v>
+      </c>
+      <c r="Q10">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11">
+        <v>45</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/cfop/analysis.xlsx
+++ b/src/cfop/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="165">
   <si>
     <t>cross moves</t>
     <phoneticPr fontId="1"/>
@@ -108,67 +108,515 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>R' B U' L2 R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 L F' L F L' U L' U L' U L U L' U' L F' U' F U2 F' U F U R' F R U R' U' F' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' F' L F' L' F2 R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' B U' L2 R U2 L F' L F L' U L' U L' U L U L' U' L F' U' F U2 F' U F U R' F R U R' U' F' R U2 R' F' L F' L' F2 R M2 U M' U2 M U M2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U B2 L D' R' U' B R U F2 B2 U' R2 D' R2 F2 U' L2 B2 U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' F' U2 F' L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' F R' F' R U' R U R' U L' U' L' U' L' U L U L U' R' F' U2 F R U2 L' U L U' F U F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U L F L' R U R' U' L F' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' U R' U' R D' R' D R' U D' R2 U' R2 D R2 U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' F' U2 F' L U' F R' F' R U' R U R' U L' U' L' U' L' U L U L U' R' F' U2 F R U2 L' U L U' F U F' U L F L' R U R' U' L F' L' U R' U R' U' R D' R' D R' U D' R2 U' R2 D R2 U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B U2 L' B L2 U' B2 U' F L U2 R2 D F2 U' L2 D R2 F2 B2 U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R F' D L' D F2 R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U' R' U' R U' R' U R U' R' F U' F' U2 L' U' L L U' L' U2 R' U F' U F R U' R' U R U2 L U2 L' U' L U L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R U B' U' R' U R B R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U L' U2 R U' L R' U L' U2 R U' L U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R F' D L' D F2 U' R' U' R U' R' U R U' R' F U' F' U2 L' U' L2 U' L' U2 R' U F' U F R U' R' U R U2 L U2 L' U' L U L' U R U B' U' R' U R B R2 U L' U2 R U' L R' U L' U2 R U' L U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2 R U' B D F2 R2 D' L F R2 F2 D2 L2 U2 R2 B D2 F B2 R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' D' B L D L' B'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' U2 L U L' U' L U L F' L' U' L U F L' U R U2 R' U F' U' F U' R' U F' U F R U' R' U R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' B' R B U B' U' R' U B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U M2 U M' U2 M U M2 U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' D' B L D L' B' L' U2 L U L' U' L U L F' L' U' L U F L' U R U2 R' U F' U' F U' R' U F' U F R U' R' U R U' B' R B U B' U' R' U B U M2 U M' U2 M U M2 U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D' L2 U L D' B' D F2 L' R2 D B2 U2 F2 R2 U' R2 D2 F2 U' F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D U' R2 D R F' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U L' U' L' U' L' U L U L U2 R U2 R' U' R U R' U' F R U R2 U' R F' U2 L' U2 L U L' U2 L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' F' L F L' U2 F2 R' F' R F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D U' R2 D R F' R U L' U' L' U' L' U L U L U2 R U2 R' U' R U R' U' F R U R2 U' R F' U2 L' U2 L U L' U2 L U' F' L F L' U2 F2 R' F' R F' U' R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U L2 F D2 F L U' L2 F' B' L2 B U2 B' U2 R2 U2 F2 R D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' D' R' L B L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R U2 R2 F R F' U2 R' B' U' R U R' B U R L' U' L2 U' L' U2 L U L' U L U' L' U2 F U' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M2 U M' U2 M U M2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' D' R' L B L' U R U2 R2 F R F' U2 R' B' U' R U R' B U R L' U' L2 U' L' U2 L U L' U L U' L' U2 F U' F' R U R' U R U' R' U R U2 R' M2 U M' U2 M U M2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' L' R2 U B2 R2 U' R2 F2 D2 R2 L' F R2 F' D B D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R B' D U' F2 R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 L U L' U L U' L' U' R' U R U2 R' F L F' L' F' R R U R' U R' F R F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U F' U2 F' L F L' U' L' U' L U' F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R B' D U' F2 R' U2 L U L' U L U' L' U' R' U R U2 R' F L F' L' F' R2 U R' U R' F R F' U F' U2 F' L F L' U' L' U' L U' F R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L R U D B L R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D R' B D' R' B' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U2 R2 U R2 U R U L U' L F' L' F L' L' U' L R' U2 R U2 R' U R U2 L' U' L U L' U' L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R U R' U R U' B U' B' R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D R' B D' R' B' L' R' U2 R2 U R2 U R U L U' L F' L' F L2 U' L R' U2 R U2 R' U R U2 L' U' L U L' U' L U2 R U R' U R U' B U' B' R' U' R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2 U R U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U R' F U' R U R' U F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' F R U R' U' F2 L' U' L U F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' L2 R U R' F U' R U R' U F' U' F R U R' U' F2 L' U' L U F U2 R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R L' U' D L2 B2 D2 L' U L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' D U B2 R' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' U' L U' R' B' U' R U R' B U R U2 F2 R U R' U' F2 U' L U L' U L U' L' R U2 R' U R' F R F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F R U R' U' F2 L' U' L U F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U R' U' R' F R2 U' R' U' R U R' F' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' D U B2 R' L2 U' L U' R' B' U' R U R' B U R U2 F2 R U R' U' F2 U' L U L' U L U' L' R U2 R' U R' F R R U R' U' F2 L' U' L U F R U R' U' R' F R2 U' R' U' R U R' F' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2 F U F' L' D B2 R2 D L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R F2 L' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R U R' U2 R U R2 U R U' R' U R U2 R' U R U L F R U' R' F' L' U' L' U2 L U' F U F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R' U2 F R U R' U' F2 U2 F R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' U2 R U2 R' F R U R' U' R' F' R2 U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R F2 L' R U2 R U R' U2 R U R2 U R U' R' U R U2 R' U R U L F R U' R' F' L' U' L' U2 L U' F U F' U' R' U2 F R U R' U' F2 U2 F R U2 R' U2 R U2 R' F R U R' U' R' F' R2 U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' L U D U' L' B' U2 B2 F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' B' D' L B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 F R2 U R2 U' R2 F' U2 R U' R' F R' F' R U L U' L' U' F' U' L' U L F L' U L2 F R U' R' F' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U R' U R U' B U' B' R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U R' U' R D' R' D R' U D' R2 U' R2 D R2 U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' B' D' L B U2 F R2 U R2 U' R2 F' U2 R U' R' F R' F' R U L U' L' U' F' U' L' U L F L' U L2 F R U' R' F' L' U' R U R' U R U' B U' B' R2 U R' U' R D' R' D R' U D' R2 U' R2 D R2 U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' U D' R2 L F' B2 F B U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B D R U' B' R' F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2 U2 F' L2 F U2 L U' L R U R' R U R' U2 R' U2 R U R' U' R U2 R U2 R2 F R F' U2 L U L' U2 L U L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L F L' R U R' U' L F' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U L' U2 R U' L R' U L' U2 R U' L U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B D R U' B' R' F L2 U2 F' L2 F U2 L U' L R U U R' U2 R' U2 R U R' U' R U2 R U2 R2 F R F' U2 L U L' U2 L U F L' R U R' U' L F' L' R' U L' U2 R U' L R' U L' U2 R U' L U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B F B D2 R' F U2 L D' B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2 D2 L' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U L F' L' F L' U' L U2 L F U F2 L F L2 U R U R' U2 R' F' U2 F R U' R U R' U R U' R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U R' U R U' R' U R U2 R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R' U' R U D' R2 U R' U R U' R U' R2 D U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2 D2 L' R U L F' L' F L' U' L U2 L F U F2 L F L2 U R U R' U2 R' F' U2 F R U' R U R' U R U' U R' U R U' R' U R U2 R' U' R' U' R U D' R2 U R' U R U' R U' R2 D U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B F' R B F U D' R2 U F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' D L F' L' R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F R' F' R U' R U R' L U' L' U2 R' B' U' R U R' B U R U' F U R U2 R' U F' U2 F' L' U' L2 U L' F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R U2 R2 U' R2 U' R2 U2 R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' D L F' L' R' F R' F' R U' R U R' L U' L' U2 R' B' U' R U R' B U R U' F U R U2 R' U F' U2 F' L' U' L2 U L' F U R U2 R2 U' R2 U' R2 U2 R U R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L R2 D B' F2 L U' D R2 F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' D' B D' L' R' B'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U B U' B' U R U' R' U2 F U' F' U F U F' U' L U' L' U B' U' B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' L F L' R U R' U' L F' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U2 R' U' R U2 L' U R' U' L U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' D' B D' L' R' B' U B U' B' U R U' R' U2 F U' F' U F U F' U' L U' L' U B' U' B U' L F L' R U R' U' L F' L' U' R U2 R' U' R U2 L' U R' U' L U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>R2 F R B D R F2 L F' D2 L U2 R B2 R2 F2 R2 U2 R' D2 L2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R' B U' L2 R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 L F' L F L' U L' U L' U L U L' U' L F' U' F U2 F' U F U R' F R U R' U' F' R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R' F' L F' L' F2 R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M2 U M' U2 M U M2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' B U' L2 R U2 L F' L F L' U L' U L' U L U L' U' L F' U' F U2 F' U F U R' F R U R' U' F' R U2 R' F' L F' L' F2 R M2 U M' U2 M U M2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U B2 L D' R' U' B R U F2 B2 U' R2 D' R2 F2 U' L2 B2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' F' U2 F' L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' F R' F' R U' R U R' U L' U' L' U' L' U L U L U' R' F' U2 F R U2 L' U L U' F U F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U L F L' R U R' U' L F' L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R' U R' U' R D' R' D R' U D' R2 U' R2 D R2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' F' U2 F' L U' F R' F' R U' R U R' U L' U' L' U' L' U L U L U' R' F' U2 F R U2 L' U L U' F U F' U L F L' R U R' U' L F' L' U R' U R' U' R D' R' D R' U D' R2 U' R2 D R2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B U2 L' B L2 U' B2 U' F L U2 R2 D F2 U' L2 D R2 F2 B2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R F' D L' D F2 R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U' R' U' R U' R' U R U' R' F U' F' U2 L' U' L L U' L' U2 R' U F' U F R U' R' U R U2 L U2 L' U' L U L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R U B' U' R' U R B R'</t>
+    <t>L2 D' B' L' B D' F2 L2 U2 F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' D B' L' R F R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U' R' U2 R U' R' F' L F L' U' L' U' L U' L F U2 F' L' U' L U L' U B U' B'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L F L' U R U' R' U R U' R' L F' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2 B2 R F R' B2 R F' R U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' D B' L' R F R U' R U' R' U2 R U' R' F' L F L' U' L' U' L U' L F U2 F' L' U' L U L' U B U' B' L F L' U R U' R' U R U' R' L F' L' R2 B2 R F R' B2 R F' R U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U2 L' U F' D2 F2 U2 D' FU' D2 L2 B F L U B2 U' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R B F D F L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U R' L' U' U' L U L' U' L R' U2 F R U R' U' F' R L U' L' U2 R U2 R' U F' U' F U L U' L F' L2 U' L U F U L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' F' L F' L' F2 R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U2 R U2 R' F R U R' U' R' F' R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R B F D F L' R U R' L' U2 L U L' U' L R' U2 F R U R' U' F' R L U' L' U2 R U2 R' U F' U' F U L U' L F' L2 U' L U F U L' U R' F' L F' L' F2 U2 R U2 R' F R U R' U' R' F' R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D' L F' L F' B2 D2 B' R F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R F D' U F R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U L' U' L U2 R' F R U R' U' F' R U R U2 R' U F' U' F U F U2 R U R' U F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L F R' F' L' F R F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R U R' F' U' F R U R' F R' F' R2 U2 R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R F D' U F R' U L' U' L U2 R' F R U R' U' F' R U R U2 R' U F' U' F U F U2 R U R' U F' L F R' F' L' F R F' U2 R U R' F' U' F R U R' F R' F' R2 U2 R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F B2 R2 L' F' L' R2 B' F D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' L R2 U' F R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' L' U L F' L F L' U2 L U' L' U L U' L' U' F' U2 F U F' U' F U' R' F' U2 F R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U B' R B U B' U' R' U B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R U' L' U R' U2 L U' L' U2 L U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' L R2 U' F R' U' L' U L F' L F L' U2 L U' L' U L U' L' U' F' U2 F U F' U' F U' R' F' U2 F R U B' R B U B' U' R' U B U2 R U' L' U R' U2 L U' L' U2 L U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2 L R2 L B D2 F2 D' R' L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' B L2 U R' F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 L U L' U2 L U L' F U F' R D R' U R D' R' U F R' F' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' U' R' F R F' U R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U R' U' D R2 U' R U' R' U R' U R2 D'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' B L2 U R' F U2 L U L' U2 L U L' F U F' R D R' U R D' R' U F R' F' R U R' U' R' F R F' U R2 U R' U' D R2 U' R U' R' U R' U R2 D'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D2 R L' U B' R' U' L U2 B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D2 R' F R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R U R' U R U' R' F' L F L' U' L' U' L L U' L' R' U R U' R' U' R U' L F U F' L' U L U L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' F R U R' U' F'</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -176,151 +624,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R F' D L' D F2 U' R' U' R U' R' U R U' R' F U' F' U2 L' U' L2 U' L' U2 R' U F' U F R U' R' U R U2 L U2 L' U' L U L' U R U B' U' R' U R B R2 U L' U2 R U' L R' U L' U2 R U' L U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2 R U' B D F2 R2 D' L F R2 F2 D2 L2 U2 R2 B D2 F B2 R2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' D' B L D L' B'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' U2 L U L' U' L U L F' L' U' L U F L' U R U2 R' U F' U' F U' R' U F' U F R U' R' U R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' B' R B U B' U' R' U B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U M2 U M' U2 M U M2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' D' B L D L' B' L' U2 L U L' U' L U L F' L' U' L U F L' U R U2 R' U F' U' F U' R' U F' U F R U' R' U R U' B' R B U B' U' R' U B U M2 U M' U2 M U M2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D' L2 U L D' B' D F2 L' R2 D B2 U2 F2 R2 U' R2 D2 F2 U' F2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D U' R2 D R F' R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U L' U' L' U' L' U L U L U2 R U2 R' U' R U R' U' F R U R2 U' R F' U2 L' U2 L U L' U2 L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' F' L F L' U2 F2 R' F' R F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D U' R2 D R F' R U L' U' L' U' L' U L U L U2 R U2 R' U' R U R' U' F R U R2 U' R F' U2 L' U2 L U L' U2 L U' F' L F L' U2 F2 R' F' R F' U' R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U L2 F D2 F L U' L2 F' B' L2 B U2 B' U2 R2 U2 F2 R D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' D' R' L B L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R U2 R2 F R F' U2 R' B' U' R U R' B U R L' U' L2 U' L' U2 L U L' U L U' L' U2 F U' F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U R' U R U' R' U R U2 R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M2 U M' U2 M U M2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' D' R' L B L' U R U2 R2 F R F' U2 R' B' U' R U R' B U R L' U' L2 U' L' U2 L U L' U L U' L' U2 F U' F' R U R' U R U' R' U R U2 R' M2 U M' U2 M U M2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B' L' R2 U B2 R2 U' R2 F2 D2 R2 L' F R2 F' D B D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R B' D U' F2 R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 L U L' U L U' L' U' R' U R U2 R' F L F' L' F' R R U R' U R' F R F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U F' U2 F' L F L' U' L' U' L U' F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R B' D U' F2 R' U2 L U L' U L U' L' U' R' U R U2 R' F L F' L' F' R2 U R' U R' F R F' U F' U2 F' L F L' U' L' U' L U' F R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L R U D B L R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D R' B D' R' B' L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' U2 R2 U R2 U R U L U' L F' L' F L' L' U' L R' U2 R U2 R' U R U2 L' U' L U L' U' L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R U R' U R U' B U' B' R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D R' B D' R' B' L' R' U2 R2 U R2 U R U L U' L F' L' F L2 U' L R' U2 R U2 R' U R U2 L' U' L U L' U' L U2 R U R' U R U' B U' B' R' U' R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L2 U R U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R' L2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U R' F U' R U R' U F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' F R U R' U' F2 L' U' L U F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R' L2 R U R' F U' R U R' U F' U' F R U R' U' F2 L' U' L U F U2 R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R U2</t>
+    <t>D2 R' F R U2 R U R' U R U' R' F' L F L' U' L' U' L2 U' L' R' U R U' R' U' R U' L F U F' L' U L U L' U' F R U R' U' F' R' U L' U2 R U' L R' U L' U2 R U' L U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U F L U2 F' B2 R D' B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' D' B2 R F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F U' R U R' U F' L U L' U' L U L' U' L U L' U2 R U' B U' B' U2 R U' F' U F R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 F R U R' U' R U R' U' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' U2 R U2 R' F R U R' U' R' F' R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' D' B2 R F2 U' R U R' U F' L U L' U' L U L' U' L U L' U2 R U' B U' B' U2 R U' F' U F R2 U2 F R U R' U' R U R' U' F' U2 R' U2 R U2 R' F R U R' U' R' F' R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F D' U' F2 B U L' F' R2 L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D' F D' U' F B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' U F' U F R U' R' U R U' R U R' U R' F R F' L U' L' U2 F U' F' U F U F' U' L U' L F' L2 U' L U F U L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U2 R2 F R F' R U2 R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U R' F' U' F R U R' F R' F' R2 U2 R' U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D' F D' U' F B2 U2 R' U F' U F R U' R' U R U' R U R' U R' F R F' L U' L' U2 F U' F' U F U F' U' L U' L F' L2 U' L U F U L' R U2 R2 F R F' R U2 R' U' R U R' F' U' F R U R' F R' F' R2 U2 R' U</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -659,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -739,7 +1091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="">
+    <row r="2" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -792,15 +1144,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="">
+    <row r="3" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -809,7 +1161,7 @@
         <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>32</v>
@@ -818,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -827,7 +1179,7 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M3">
         <v>7</v>
@@ -836,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P3">
         <v>52</v>
@@ -845,15 +1197,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="">
+    <row r="4" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -862,7 +1214,7 @@
         <v>409</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>33</v>
@@ -871,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>11</v>
@@ -880,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M4">
         <v>18</v>
@@ -889,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P4">
         <v>67</v>
@@ -898,15 +1250,15 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="">
+    <row r="5" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -915,7 +1267,7 @@
         <v>1583</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>40</v>
@@ -924,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -933,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="M5">
         <v>15</v>
@@ -942,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P5">
         <v>68</v>
@@ -951,15 +1303,15 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="">
+    <row r="6" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -968,7 +1320,7 @@
         <v>8699</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>35</v>
@@ -977,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -986,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M6">
         <v>9</v>
@@ -995,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P6">
         <v>61</v>
@@ -1004,15 +1356,15 @@
         <v>8704</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="">
+    <row r="7" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1021,7 +1373,7 @@
         <v>5605</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>34</v>
@@ -1030,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>11</v>
@@ -1039,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M7">
         <v>17</v>
@@ -1048,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P7">
         <v>69</v>
@@ -1057,15 +1409,15 @@
         <v>5610</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="">
+    <row r="8" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1074,7 +1426,7 @@
         <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8">
         <v>34</v>
@@ -1083,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J8">
         <v>11</v>
@@ -1092,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1101,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P8">
         <v>58</v>
@@ -1110,15 +1462,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="">
+    <row r="9" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1127,7 +1479,7 @@
         <v>1694</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -1136,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -1145,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M9">
         <v>16</v>
@@ -1154,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P9">
         <v>63</v>
@@ -1163,15 +1515,15 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="">
+    <row r="10" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1180,7 +1532,7 @@
         <v>584</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -1189,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J10">
         <v>11</v>
@@ -1198,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M10">
         <v>17</v>
@@ -1207,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P10">
         <v>67</v>
@@ -1216,15 +1568,15 @@
         <v>592</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="">
+    <row r="11" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1233,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1242,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J11">
         <v>12</v>
@@ -1251,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M11">
         <v>20</v>
@@ -1260,13 +1612,808 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P11">
         <v>45</v>
       </c>
       <c r="Q11">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>139</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12">
+        <v>65</v>
+      </c>
+      <c r="Q12">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13">
+        <v>66</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14">
+        <v>17</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14">
+        <v>68</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15">
+        <v>15</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15">
+        <v>66</v>
+      </c>
+      <c r="Q15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>236</v>
+      </c>
+      <c r="F16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16">
+        <v>17</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16">
+        <v>64</v>
+      </c>
+      <c r="Q16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17">
+        <v>70</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>475</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18">
+        <v>56</v>
+      </c>
+      <c r="Q18">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19">
+        <v>61</v>
+      </c>
+      <c r="Q19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20">
+        <v>43</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20">
+        <v>68</v>
+      </c>
+      <c r="Q20">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>170</v>
+      </c>
+      <c r="F21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21">
+        <v>60</v>
+      </c>
+      <c r="Q21">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22">
+        <v>59</v>
+      </c>
+      <c r="Q22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>89</v>
+      </c>
+      <c r="F23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23">
+        <v>15</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23">
+        <v>52</v>
+      </c>
+      <c r="Q23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24">
+        <v>36</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>151</v>
+      </c>
+      <c r="M24">
+        <v>15</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24">
+        <v>61</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25">
+        <v>31</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25">
+        <v>60</v>
+      </c>
+      <c r="Q25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="">
+      <c r="A26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26">
+        <v>43</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>163</v>
+      </c>
+      <c r="M26">
+        <v>17</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26">
+        <v>75</v>
+      </c>
+      <c r="Q26">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/cfop/analysis.xlsx
+++ b/src/cfop/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="221">
   <si>
     <t>cross moves</t>
     <phoneticPr fontId="1"/>
@@ -84,35 +84,219 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>L R U D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D' R' L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R U R' L U L' U L U' L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 L F R' F' L' F R F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M' U M2 U M2 U M' U2 M2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D' R' L' U2 R U R' L U L' U L U' L' U2 L F R' F' L' F R F' M' U M2 U M2 U M' U2 M2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' B U' L2 R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 L F' L F L' U L' U L' U L U L' U' L F' U' F U2 F' U F U R' F R U R' U' F' R</t>
+    <t>L' U B' R D2 L2 R F2 D R D U2 F R L' B L2 F' B U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' L' F' L' B'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L F' L' F L' U L U' L U2 F' L' U' L U F L' R U R2 U R U R' U2 R U2 R' U R U F' U F U' F' U' F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R B' R B R2 U2 F R' F' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2 U R U R' U' R' U' R' U R' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' L' F' L' B' L F' L' F L' U L U' L U2 F' L' U' L U F L' R U R2 U R U R' U2 R U2 R' U R U F' U F U' F' U' F U2 R B' R B R2 U2 F R' F' R' U R U R' U' R' U' R' U R' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U2 D' B' R2 D' U R B' F2 U' B' U L2 B2 F U2 F2 L' R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F L' D B'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' U' L U' F R U R2 U' R F' U L U' L F' L2 U' L U F U L' R U' R' U R U' R' U' F2 R U R' U' F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' U' R U' R' U2 R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2 U' R U' R U R' U R2 D' U R U' R' D U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F L' D B' L' U' L U' F R U R2 U' R F' U L U' L F' L2 U' L U F U L' R U' R' U R U' R' U' F2 R U R' U' F2 U R' U' R U' R' U2 R' U' R U' R U R' U R2 D' U R U' R' D U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L R' L2 U D2 F' R2 L2 F D L' F2 R' D U L2 D2 R2 B R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B F R' D F' U R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U L U L' U' L U L' U' L U L' U' R' U2 R U' B U B' L' U' L R U R' U R U R' U2 L' U L U' F U F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' F R U R' U' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B F R' D F' U R2 U L U L' U' L U L' U' L U L' U' R' U2 R U' B U B' L' U' L R U R' U R U R' U2 L' U L U' F U F' U' F R U R' U' F' R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 D' U2 B' L D' F R D' B U2 F' U B F2 D L' D F' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U B' R D L' F' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U F2 R U R' U' F2 U' B U' B' L U' L' U2 R' U2 R2 U R2 U R U' L U L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U F R U R' U' F' U' F R U R' U' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R2 U' R2 U' R2 U F U F' R2 F U' F' U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U B' R D L' F' R U F2 R U R' U' F2 U' B U' B' L U' L' U2 R' U2 R2 U R2 U R U' L U L' U F R U R' U' F' U' F R U R' U' F' U' R2 U' R2 U' R2 U F U F' R2 F U' F' U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2 U2 D U' R B2 L2 U2 B U' F R' D' F' L2 R2 D' B' F B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L B R' B F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 L' U' L U L' U' L R U R' U2 R' F' U' F U2 R U' B' U B U2 B' U' B U F' U' F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R L' U R' U' L R' F R F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U L F R F' L' F R' F' L F R' F' L' F R F' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L B R' B F' U2 L' U' L U L' U' L R U R' U2 R' F' U' F U2 R U' B' U B U2 B' U' B U F' U' F U R L' U R' U' L R' F R F' U L F R F' L' F R' F' L F R' F' L' F R F' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2 R' L R D'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D L' F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F D L' U D2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B L' B' D U B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U L U' L' R' U' R U2 L' U L U L' U' L U2 F' U2 F U F' U' F L U2 L' U' L U L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' F R B' R' F' R B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U R' U' R D' R' D R' U D' R2 U' R2 D R2 U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B L' B' D U B2 U L U' L' R' U' R U2 L' U L U L' U' L U2 F' U2 F U F' U' F L U2 L' U' L U L' U R' F R B' R' F' R B R' U R' U' R D' R' D R' U D' R2 U' R2 D R2 U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 B L2 R' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2 F R B'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U F U' F' U2 R' U R U R' U2 R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U R' U R U2 R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2 U R' U R' U' R U' R2 D U' R' U R D' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2 F R B' U F U' F' U2 R' U R U R' U2 R U' R U R' U R U2 R U R' U R' U' R U' R2 D U' R' U R D' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D' B2 U2 F2 D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D' F2 D U L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' U' L R' U R U R' U' R U' R' U' R U2 L' U' L' U' L' U L U L U' L' U' L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U R' U R U2 R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2 U R U R' U' R' U' R' U R' U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D' F2 D U L U' L R' U R U R' U' R U' R' U' R U2 L' U' L' U' L' U L U L U' L' U' L U' R U R' U R U2 R U R U R' U' R' U' R' U R' U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2 R D L' D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D2 R' B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U L F' L' F L' U' L U' L U' L' U2 L U' L' R' F' U' F R U' R' U' R</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -120,19 +304,587 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R' B U' L2 R U2 L F' L F L' U L' U L' U L U L' U' L F' U' F U2 F' U F U R' F R U R' U' F' R U2 R' F' L F' L' F2 R M2 U M' U2 M U M2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U B2 L D' R' U' B R U F2 B2 U' R2 D' R2 F2 U' L2 B2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' F' U2 F' L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' F R' F' R U' R U R' U L' U' L' U' L' U L U L U' R' F' U2 F R U2 L' U L U' F U F'</t>
+    <t>U R' U2 R U2 R' F R U R' U' R' F' R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D2 R' B2 U L F' L' F L' U' L U' L U' L' U2 L U' L' R' F' U' F R U' R' U' R U2 R' F' L F' L' F2 R U R' U2 R U2 R' F R U R' U' R' F' R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D B' U2 L' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L B D'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' L U' L' U2 L U' L' U2 L F' L' F L' U' L U2 R' U' R U R' U' R U R' U' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F U R U2 R' U' R U R' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R2 U' R U' R U R' U R2 D' U R U' R' D U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L B D' U' L U' L' U2 L U' L' U2 L F' L' F L' U' L U2 R' U' R U R' U' R U R' U' R F U R U2 R' U' R U R' F' U R2 U' R U' R U R' U R2 D' U R U' R' D U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2 F2 L2 U' B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2 U F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L U' L' U2 R U R' U' L' U L U2 L' U' L U' L F U F' L' U L U L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' B U L U' L' B'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' U R' U' R D' R' D R' U D' R2 U' R2 D R2 U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2 U F2 L U' L' U2 R U R' U' L' U L U2 L' U' L U' L F U F' L' U L U L' U' B U L U' L' B' U R' U R' U' R D' R' D R' U D' R2 U' R2 D R2 U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F' L U L' D2 F B2 U' R2 L' F R2 U' F' D2 B L U' F' B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' D' R B' R B L' F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 L' U L2 F' L' F U2 B U' B' U2 B U B' U' R' F R F' R U' R' U' L U' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U F' U' L' U L U' L' U L F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U F U2 R' D' R U' R' D R U' F' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' D' R B' R B L' F U2 L' U L2 F' L' F U2 B U' B' U2 B U B' U' R' F R F' R U' R' U' L U' L' U F' U' L' U L U' L' U L F U F U2 R' D' R U' R' D R U' F' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F' B2 F2 D2 U' F R2 L B' D2 B F' L D' B' R F2 B' D R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' F' R' F' D F L F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U R' U F' U' F U L' U' L U' F U F' U B U' B' U2 B U B' U' L U2 F' L' U' L U F L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' B' U' R2 D' R U R' D R2 B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2 U' R U' R U R' U R2 D' U R U' R' D U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' F' R' F' D F L F' U' R U R' U F' U' F U L' U' L U' F U F' U B U' B' U2 B U B' U' L U2 F' L' U' L U F L' U' B' U' R2 D' R U R' D R2 B R2 U' R U' R U R' U R2 D' U R U' R' D U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D' U R D R L' F L' D' B R D2 B2 U' R2 L' R F D R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D' R' D' U F' R' F' L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R' F' U' F U2 R L' U' L R U' B U' B' U2 R' U L' U L2 F' L' F L U2 L' U L U' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U' R F R' F' U F R F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D' R' D' U F' R' F' L U' R' F' U' F U2 R L' U' L R U' B U' B' U2 R' U L' U L2 F' L' F L U2 L' U L U' L' R' U' R F R' F' U F R F' R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D B D U L R2 D U' B2 F' D2 U L D' L R2 B2 R2 D B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D R' D2 R U B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' U' L U2 B U' B' U B U B' U' L U2 L' U' L U L' U F U2 F' U' F U F' R U R' U R U R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U R' U R' F R F' R U2 R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R2 U' R U' R U R' U R2 D' U R U' R' D U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D R' D2 R U B2 L' U' L U2 B U' B' U B U B' U' L U2 L' U' L U L' U F U2 F' U' F U F' R U R' U R U R' U' R U R' U R' F R F' R U2 R' U R2 U' R U' R U R' U R2 D' U R U' R' D U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B U' L2 D' L2 R2 L2 F L' F' B F' D R2 L B2 L B2 L D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' U' B R2 D F' R' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R' U' R U' R' U' R U L' U' L F' L' U2 L F U2 L' U' L U' F U F' U' B' U2 B U2 B' U' B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U R' U R U' R' U' R' F R F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' U' R U D' R2 U R' U R U' R U' R2 D U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' U' B R2 D F' R' F' U' R' U' R U' R' U' R U L' U' L F' L' U2 L F U2 L' U' L U' F U F' U' B' U2 B U2 B' U' B R U R' U R U' R' U' R' F R F' U R' U' R U D' R2 U R' U R U' R U' R2 D U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D2 R2 U2 L' F' D B' U' R' B2 D2 B D' L2 R2 D2 R L F2 L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D F R' D R2 L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U R' U R' F R F' U L' U' L L U' L' R' U R U' R' F R U R' U' F' R U' L U2 L F' L' F L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R U R' U R U' B U' B' R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D F R' D R2 L R U R' U R' F R F' U L' U' L2 U' L' R' U R U' R' F R U R' U' F' R U' L U2 L F' L' F L' U R U R' U R U' B U' B' R2 U' F' R U R' U' R' F R2 U' R' U' R U R' U R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' D L2 U2 D R' D2 R' B' U D' U2 F' U B' U2 D F' B2 F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F' L B' D L F R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R' B' U' R U R' B U R R U R' L U' L' R U' R' L U' L' U' F U' F' U F U F' U' L' U2 L2 U L2 U L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U F R' F' R U R U' R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R U R' F' U' F R U R' F R' F' R2 U2 R' U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F' L B' D L F R U' R' B' U' R U R' B U R2 U R' L U' L' R U' R' L U' L' U' F U' F' U F U F' U' L' U2 L2 U L2 U L U F R' F' R U R U' R' U R U R' F' U' F R U R' F R' F' R2 U2 R' U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U B' D' R' U2 L D2 L2 B R2 F2 R2 B L2 R F' B2 U D' L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R B L' D F B R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U B U' B' U2 B U B' U R U' R' U' L U' L' U B' U' B U' L F' L' F U' L' U L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L F L' U R U' R' U R U' R' L F' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R2 U R U R' U' R' U' R' U R' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R B L' D F B R U B U' B' U2 B U B' U R U' R' U' L U' L' U B' U' B U' L F' L' F U' L' U L2 F L' U R U' R' U R U' R' L F' L' U R2 U R U R' U' R' U' R' U R' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U L2 B' L2 D2 B2 U F L D2 U R U' D2 R2 B R F' L U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B R L B F' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U' R U' R' U' R U2 R' F L F' L' F' R L' U2 L2 U L2 U L U' F U R U' R' F' R U' R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U F' L' U' L U F L' U' L U L F' L' F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' F U2 R' D' R U' R' D R U' F' U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B R L B F' L' R' U' R U' R' U' R U2 R' F L F' L' F' R L' U2 L2 U L2 U L U' F U R U' R' F' R U' R' U F' L' U' L U F L' U' L U L F' L' F U' F U2 R' D' R U' R' D R U' F' U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2 D L' R2 D R2 D' F' U L' F' L D' L2 R D2 R' F' L' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' F' U L B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U R' R' U R U' R' U' R L U' L' F U2 F' U F U' F' L F U F2 L F L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R' U' R F R' F' U F R F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R2 B2 R F R' B2 R F' R U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' F' U L B2 U' R U R2 U R U' R' U' R L U' L' F U2 F' U F U' F' L F U F2 L F L2 U' R' U' R F R' F' U F R F' U2 R2 B2 R F R' B2 R F' R U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L B2 F U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F' U B2 L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 L U' L' B L' B' L R D R' U R D' R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' U' F U R U' R' F' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U L F R F' L' F R' F' L F R' F' L' F R F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F' U B2 L' U2 L U' L' B L' B' L R D R' U R D' R' U2 R' U' F U R U' R' F' R U L F R F' L' F R' F' L F R' F' L' F R F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2 R2 U2 D2 U' D' U' L' B2 U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' L D' R' F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' L' U2 L U L' U2 L U' R' U R U R U R' U2 R U R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L F R' F' L' F R F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R U' R U R U R U' R' U' R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' L D' R' F2 U' L' U2 L U L' U2 L U' R' U R U R U R' U2 R U R' L F R' F' L' F R F' U R U' R U R U R U' R' U' R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D U2 B2 F2 D F R2 B' L2 D' R' D' F' L F2 U' R D B2 D'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' L' D L' B R B'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L U' L F' L' F L' U2 F' L' U2 L F U R' U2 R' F R F' R U F R' F R F' U F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 F R U R' U' F2 L' U' L U F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R' U2 R U2 R' F R U R' U' R' F' R2 U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' L' D L' B R B' L U' L F' L' F L' U2 F' L' U2 L F U R' U2 R' F R F' R U F R' F R F' U F' U2 F R U R' U' F2 L' U' L U F U' R' U2 R U2 R' F R U R' U' R' F' R2 U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' B' R2 B L2 F2 R2 D R U F U2 L' R2 F2 B2 U F D'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B F' L D' F B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' U R' F R F' R U2 R U' R' L U2 F' L' U' L U F L' U F' L F L' U' L' U' L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U F U R U2 R' U' R U R' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R2 U' R2 U' R2 U F U F' R2 F U' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B F' L D' F B U2 R' U R' F R F' R U2 R U' R' L U2 F' L' U' L U F L' U F' L F L' U' L' U' L U F U R U2 R' U' R U R' F' U' R2 U' R2 U' R2 U F U F' R2 F U' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R L R' U L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L U' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2 U' L2 F L2 R2 U' L' R B F L U' F2 B2 F R' D' R' D'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' B F' L' F' R' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' F U2 F' U' F U F' L U' L' U2 R' U2 R U' B U B' R U R' U R' F R F' U' L U' L' U B' U' B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' F R U R' F' R F U' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' U' R U D' R2 U R' U R U' R U' R2 D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' B F' L' F' R' F' U' F U2 F' U' F U F' L U' L' U2 R' U2 R U' B U B' R U R' U R' F R F' U' L U' L' U B' U' B U2 R' F R U R' F' R F U' F' U2 R' U' R U D' R2 U R' U R U' R U' R2 D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L B F R U D2 F' B2 F' L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' F' L F' R' F' B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U' R U L U' L F' L2 U' L U F U L' U R U R' U' F R' F' R F U' F' U F U F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U F R U R' U' F' U' F R U R' U' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R2 U' R U' R U R' U R2 D' U R U' R' D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' F' L F' R' F' B R' U' R U L U' L F' L2 U' L U F U L' U R U R' U' F R' F' R F U' F' U F U F' U F R U R' U' F' U' F R U R' U' F' U2 R2 U' R U' R U R' U R2 D' U R U' R' D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B L B U2 D' U2 B2 L U2 B'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2 D B' L' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U L U L' U F' L' U2 L F F R' F R F' U F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F' L' U' L U L' U' L U F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R U' L' U R' U2 L U' L' U2 L U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2 D B' L' F' U L U L' U F' L' U2 L F2 R' F R F' U F2 L' U' L U L' U' L U F U2 R U' L' U R' U2 L U' L' U2 L U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' U L2 B2 D2 U R2 U L2 R U2 R2 U' D L B2 L2 B' D' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L F' R' F' D' R' F' L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B U' B' U2 B U B' L F' L' U' L U F L' L' U L U' L' U' L U R U' B U' B' U2 R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R B' R2 F R2 B R2 F' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' U' R U D' R2 U R' U R U' R U' R2 D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L F' R' F' D' R' F' L B U' B' U2 B U B' L F' L' U' L U F L2 U L U' L' U' L U R U' B U' B' U2 R' U R B' R2 F R2 B R2 F' R U R' U' R U D' R2 U R' U R U' R U' R2 D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2 U2 D R' B2 U L2 U2 D' R L' D U F' D' L2 B' D B2 L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L D L' B F L F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U2 R' U' R U R' U' L U' L' U B' U' B U L F' L' F U' L' U L U B U B' U R' U' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' U' R U F R B' R' F' B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' U2 R U2 R' F R U R' U' R' F' R2 U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L D L' B F L F' R U2 R' U' R U R' U' L U' L' U B' U' B U L F' L' F U' L' U L U B U B' U R' U' R U R' U' R U F R B' R' F' B U2 R' U2 R U2 R' F R U R' U' R' F' R2 U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' B2 F' R2 F B2 L' U' D' F2 R' U D2 B D' R U D2 L2 F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D R D U B' L' F' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' U' L U R U' R' F R' F' R R' F R' F' R2 U' R' U R U L F' L' F U' L' U L U L U L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 F U R U2 R' U' R U R' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U' R U R U R U' R' U' R2 U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D R D U B' L' F' L2 U' L U R U' R' F R' F' F R' F' R2 U' R' U R U L F' L' F U' L' U L U L U L' U2 F U R U2 R' U' R U R' F' R U' R U R U R U' R' U' R2 U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D' R2 B2 F2 B' R' U D2 L' F' B' D2 U2 B R L D2 L D2 B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L F D' L' U' R' F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L U' L' U2 R' U R U L' U' L R U R' U R U R' U' F U' R U R' U F' L U L' U' L U L' U' L U L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R B' R B R2 U2 F R' F' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L U' R U2 L' U R' L U' R U2 L' U R' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L F D' L' U' R' F L U' L' U2 R' U R U L' U' L R U R' U R U R' U' F U' R U R' U F' L U L' U' L U L' U' L U L' U' R B' R B R2 U2 F R' F' R L U' R U2 L' U R' L U' R U2 L' U R' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D' B2 F' L2 B2 D2 L' B2 R' D F' B2 U F2 B2 D F L' R L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R D B U R B' F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R' U2 R U' R' U R L F' L' F U' L' U L U' L U' L' U L U L' U' R U R' U' R U R'</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -140,539 +892,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>U R' U R' U' R D' R' D R' U D' R2 U' R2 D R2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' F' U2 F' L U' F R' F' R U' R U R' U L' U' L' U' L' U L U L U' R' F' U2 F R U2 L' U L U' F U F' U L F L' R U R' U' L F' L' U R' U R' U' R D' R' D R' U D' R2 U' R2 D R2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B U2 L' B L2 U' B2 U' F L U2 R2 D F2 U' L2 D R2 F2 B2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R F' D L' D F2 R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U' R' U' R U' R' U R U' R' F U' F' U2 L' U' L L U' L' U2 R' U F' U F R U' R' U R U2 L U2 L' U' L U L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R U B' U' R' U R B R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' U L' U2 R U' L R' U L' U2 R U' L U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R F' D L' D F2 U' R' U' R U' R' U R U' R' F U' F' U2 L' U' L2 U' L' U2 R' U F' U F R U' R' U R U2 L U2 L' U' L U L' U R U B' U' R' U R B R2 U L' U2 R U' L R' U L' U2 R U' L U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2 R U' B D F2 R2 D' L F R2 F2 D2 L2 U2 R2 B D2 F B2 R2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' D' B L D L' B'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' U2 L U L' U' L U L F' L' U' L U F L' U R U2 R' U F' U' F U' R' U F' U F R U' R' U R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' B' R B U B' U' R' U B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U M2 U M' U2 M U M2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' D' B L D L' B' L' U2 L U L' U' L U L F' L' U' L U F L' U R U2 R' U F' U' F U' R' U F' U F R U' R' U R U' B' R B U B' U' R' U B U M2 U M' U2 M U M2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D' L2 U L D' B' D F2 L' R2 D B2 U2 F2 R2 U' R2 D2 F2 U' F2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D U' R2 D R F' R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U L' U' L' U' L' U L U L U2 R U2 R' U' R U R' U' F R U R2 U' R F' U2 L' U2 L U L' U2 L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' F' L F L' U2 F2 R' F' R F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D U' R2 D R F' R U L' U' L' U' L' U L U L U2 R U2 R' U' R U R' U' F R U R2 U' R F' U2 L' U2 L U L' U2 L U' F' L F L' U2 F2 R' F' R F' U' R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U L2 F D2 F L U' L2 F' B' L2 B U2 B' U2 R2 U2 F2 R D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' D' R' L B L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R U2 R2 F R F' U2 R' B' U' R U R' B U R L' U' L2 U' L' U2 L U L' U L U' L' U2 F U' F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M2 U M' U2 M U M2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' D' R' L B L' U R U2 R2 F R F' U2 R' B' U' R U R' B U R L' U' L2 U' L' U2 L U L' U L U' L' U2 F U' F' R U R' U R U' R' U R U2 R' M2 U M' U2 M U M2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B' L' R2 U B2 R2 U' R2 F2 D2 R2 L' F R2 F' D B D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R B' D U' F2 R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 L U L' U L U' L' U' R' U R U2 R' F L F' L' F' R R U R' U R' F R F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U F' U2 F' L F L' U' L' U' L U' F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>U' R B' D U' F2 R' U2 L U L' U L U' L' U' R' U R U2 R' F L F' L' F' R2 U R' U R' F R F' U F' U2 F' L F L' U' L' U' L U' F R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L R U D B L R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D R' B D' R' B' L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' U2 R2 U R2 U R U L U' L F' L' F L' L' U' L R' U2 R U2 R' U R U2 L' U' L U L' U' L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R U R' U R U' B U' B' R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D R' B D' R' B' L' R' U2 R2 U R2 U R U L U' L F' L' F L2 U' L R' U2 R U2 R' U R U2 L' U' L U L' U' L U2 R U R' U R U' B U' B' R' U' R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L2 U R U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R' L2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U R' F U' R U R' U F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' F R U R' U' F2 L' U' L U F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R' L2 R U R' F U' R U R' U F' U' F R U R' U' F2 L' U' L U F U2 R' U' F' R U R' U' R' F R2 U' R' U' R U R' U R U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R L' U' D L2 B2 D2 L' U L2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' D U B2 R' L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' U' L U' R' B' U' R U R' B U R U2 F2 R U R' U' F2 U' L U L' U L U' L' R U2 R' U R' F R F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F R U R' U' F2 L' U' L U F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U R' U' R' F R2 U' R' U' R U R' F' U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' D U B2 R' L2 U' L U' R' B' U' R U R' B U R U2 F2 R U R' U' F2 U' L U L' U L U' L' R U2 R' U R' F R R U R' U' F2 L' U' L U F R U R' U' R' F R2 U' R' U' R U R' F' U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2 F U F' L' D B2 R2 D L2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R F2 L' R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R U R' U2 R U R2 U R U' R' U R U2 R' U R U L F R U' R' F' L' U' L' U2 L U' F U F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R' U2 F R U R' U' F2 U2 F R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R' U2 R U2 R' F R U R' U' R' F' R2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R F2 L' R U2 R U R' U2 R U R2 U R U' R' U R U2 R' U R U L F R U' R' F' L' U' L' U2 L U' F U F' U' R' U2 F R U R' U' F2 U2 F R U2 R' U2 R U2 R' F R U R' U' R' F' R2 U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' L U D U' L' B' U2 B2 F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' B' D' L B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 F R2 U R2 U' R2 F' U2 R U' R' F R' F' R U L U' L' U' F' U' L' U L F L' U L2 F R U' R' F' L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R U R' U R U' B U' B' R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' U R' U' R D' R' D R' U D' R2 U' R2 D R2 U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' B' D' L B U2 F R2 U R2 U' R2 F' U2 R U' R' F R' F' R U L U' L' U' F' U' L' U L F L' U L2 F R U' R' F' L' U' R U R' U R U' B U' B' R2 U R' U' R D' R' D R' U D' R2 U' R2 D R2 U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B' U D' R2 L F' B2 F B U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B D R U' B' R' F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L2 U2 F' L2 F U2 L U' L R U R' R U R' U2 R' U2 R U R' U' R U2 R U2 R2 F R F' U2 L U L' U2 L U L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L F L' R U R' U' L F' L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' U L' U2 R U' L R' U L' U2 R U' L U</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B D R U' B' R' F L2 U2 F' L2 F U2 L U' L R U U R' U2 R' U2 R U R' U' R U2 R U2 R2 F R F' U2 L U L' U2 L U F L' R U R' U' L F' L' R' U L' U2 R U' L R' U L' U2 R U' L U</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B F B D2 R' F U2 L D' B2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F2 D2 L' R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U L F' L' F L' U' L U2 L F U F2 L F L2 U R U R' U2 R' F' U2 F R U' R U R' U R U' R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U R' U R U' R' U R U2 R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R' U' R U D' R2 U R' U R U' R U' R2 D U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F2 D2 L' R U L F' L' F L' U' L U2 L F U F2 L F L2 U R U R' U2 R' F' U2 F R U' R U R' U R U' U R' U R U' R' U R U2 R' U' R' U' R U D' R2 U R' U R U' R U' R2 D U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B F' R B F U D' R2 U F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' D L F' L' R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F R' F' R U' R U R' L U' L' U2 R' B' U' R U R' B U R U' F U R U2 R' U F' U2 F' L' U' L2 U L' F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R U2 R2 U' R2 U' R2 U2 R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' D L F' L' R' F R' F' R U' R U R' L U' L' U2 R' B' U' R U R' B U R U' F U R U2 R' U F' U2 F' L' U' L2 U L' F U R U2 R2 U' R2 U' R2 U2 R U R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L R2 D B' F2 L U' D R2 F2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R' D' B D' L' R' B'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U B U' B' U R U' R' U2 F U' F' U F U F' U' L U' L' U B' U' B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' L F L' R U R' U' L F' L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R U2 R' U' R U2 L' U R' U' L U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R' D' B D' L' R' B' U B U' B' U R U' R' U2 F U' F' U F U F' U' L U' L' U B' U' B U' L F L' R U R' U' L F' L' U' R U2 R' U' R U2 L' U R' U' L U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R2 F R B D R F2 L F' D2 L U2 R B2 R2 F2 R2 U2 R' D2 L2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L2 D' B' L' B D' F2 L2 U2 F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B' D B' L' R F R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R U' R' U2 R U' R' F' L F L' U' L' U' L U' L F U2 F' L' U' L U L' U B U' B'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L F L' U R U' R' U R U' R' L F' L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R2 B2 R F R' B2 R F' R U</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B' D B' L' R F R U' R U' R' U2 R U' R' F' L F L' U' L' U' L U' L F U2 F' L' U' L U L' U B U' B' L F L' U R U' R' U R U' R' L F' L' R2 B2 R F R' B2 R F' R U</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U2 L' U F' D2 F2 U2 D' FU' D2 L2 B F L U B2 U' L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R B F D F L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U R' L' U' U' L U L' U' L R' U2 F R U R' U' F' R L U' L' U2 R U2 R' U F' U' F U L U' L F' L2 U' L U F U L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R' F' L F' L' F2 R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' U2 R U2 R' F R U R' U' R' F' R2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R B F D F L' R U R' L' U2 L U L' U' L R' U2 F R U R' U' F' R L U' L' U2 R U2 R' U F' U' F U L U' L F' L2 U' L U F U L' U R' F' L F' L' F2 U2 R U2 R' F R U R' U' R' F' R2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D' L F' L F' B2 D2 B' R F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R F D' U F R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U L' U' L U2 R' F R U R' U' F' R U R U2 R' U F' U' F U F U2 R U R' U F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L F R' F' L' F R F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R U R' F' U' F R U R' F R' F' R2 U2 R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R F D' U F R' U L' U' L U2 R' F R U R' U' F' R U R U2 R' U F' U' F U F U2 R U R' U F' L F R' F' L' F R F' U2 R U R' F' U' F R U R' F R' F' R2 U2 R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F B2 R2 L' F' L' R2 B' F D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B' L R2 U' F R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' L' U L F' L F L' U2 L U' L' U L U' L' U' F' U2 F U F' U' F U' R' F' U2 F R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U B' R B U B' U' R' U B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R U' L' U R' U2 L U' L' U2 L U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B' L R2 U' F R' U' L' U L F' L F L' U2 L U' L' U L U' L' U' F' U2 F U F' U' F U' R' F' U2 F R U B' R B U B' U' R' U B U2 R U' L' U R' U2 L U' L' U2 L U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2 L R2 L B D2 F2 D' R' L</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' B L2 U R' F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 L U L' U2 L U L' F U F' R D R' U R D' R' U F R' F' R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U R' U' R' F R F' U R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U R' U' D R2 U' R U' R' U R' U R2 D'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L' B L2 U R' F U2 L U L' U2 L U L' F U F' R D R' U R D' R' U F R' F' R U R' U' R' F R F' U R2 U R' U' D R2 U' R U' R' U R' U R2 D'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D2 R L' U B' R' U' L U2 B2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D2 R' F R</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R U R' U R U' R' F' L F L' U' L' U' L L U' L' R' U R U' R' U' R U' L F U F' L' U L U L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' F R U R' U' F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' U L' U2 R U' L R' U L' U2 R U' L U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D2 R' F R U2 R U R' U R U' R' F' L F L' U' L' U' L2 U' L' R' U R U' R' U' R U' L F U F' L' U L U L' U' F R U R' U' F' R' U L' U2 R U' L R' U L' U2 R U' L U2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R' U F L U2 F' B2 R D' B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B' D' B2 R F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F U' R U R' U F' L U L' U' L U L' U' L U L' U2 R U' B U' B' U2 R U' F' U F R2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 F R U R' U' R U R' U' F'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R' U2 R U2 R' F R U R' U' R' F' R2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B' D' B2 R F2 U' R U R' U F' L U L' U' L U L' U' L U L' U2 R U' B U' B' U2 R U' F' U F R2 U2 F R U R' U' R U R' U' F' U2 R' U2 R U2 R' F R U R' U' R' F' R2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F D' U' F2 B U L' F' R2 L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D' F D' U' F B2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U2 R' U F' U F R U' R' U R U' R U R' U R' F R F' L U' L' U2 F U' F' U F U F' U' L U' L F' L2 U' L U F U L'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R U2 R2 F R F' R U2 R'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U' R U R' F' U' F R U R' F R' F' R2 U2 R' U</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D' F D' U' F B2 U2 R' U F' U F R U' R' U R U' R U R' U R' F R F' L U' L' U2 F U' F' U F U F' U' L U' L F' L2 U' L U F U L' R U2 R2 F R F' R U2 R' U' R U R' F' U' F R U R' F R' F' R2 U2 R' U</t>
+    <t>R D B U R B' F2 U' R' U2 R U' R' U R L F' L' F U' L' U L U' L U' L' U L U L' U' R U R' U' R U R' U L F L' R U R' U' L F' L' R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1011,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1096,370 +1320,370 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5218</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>805</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="L2" t="s">
         <v>21</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
       </c>
       <c r="P2">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="Q2">
-        <v>14</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>143</v>
+        <v>16810</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>970</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>8</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>466</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P3">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="Q3">
-        <v>155</v>
+        <v>18575</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>409</v>
+        <v>253860</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>668</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>378</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>11</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
       <c r="M4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P4">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q4">
-        <v>415</v>
+        <v>255107</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>1583</v>
+        <v>63297</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>941</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="L5" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="M5">
         <v>15</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P5">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q5">
-        <v>1589</v>
+        <v>64879</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>8699</v>
+        <v>3478</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>789</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P6">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q6">
-        <v>8704</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>5605</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="G7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1140</v>
       </c>
       <c r="I7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>421</v>
+      </c>
+      <c r="L7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>343</v>
+      </c>
+      <c r="O7" t="s">
         <v>48</v>
       </c>
-      <c r="J7">
-        <v>11</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7">
-        <v>17</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>50</v>
-      </c>
       <c r="P7">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>5610</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>51</v>
-      </c>
-      <c r="B8">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>125</v>
+        <v>218239</v>
       </c>
       <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>667</v>
+      </c>
+      <c r="I8" t="s">
         <v>53</v>
       </c>
-      <c r="G8">
-        <v>34</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>101</v>
-      </c>
       <c r="J8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>324</v>
       </c>
       <c r="L8" t="s">
         <v>54</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="O8" t="s">
         <v>55</v>
       </c>
       <c r="P8">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q8">
-        <v>135</v>
+        <v>219459</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
@@ -1467,34 +1691,34 @@
         <v>56</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>1694</v>
+        <v>2928</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>476</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>427</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -1503,16 +1727,16 @@
         <v>16</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="O9" t="s">
         <v>61</v>
       </c>
       <c r="P9">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="Q9">
-        <v>1698</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
@@ -1520,52 +1744,52 @@
         <v>62</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>584</v>
+        <v>295649</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
       </c>
       <c r="G10">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>698</v>
       </c>
       <c r="I10" t="s">
         <v>65</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>386</v>
       </c>
       <c r="L10" t="s">
         <v>66</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="O10" t="s">
         <v>67</v>
       </c>
       <c r="P10">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Q10">
-        <v>592</v>
+        <v>296973</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
@@ -1573,7 +1797,7 @@
         <v>68</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -1582,43 +1806,43 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1049</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="I11" t="s">
         <v>71</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="L11" t="s">
         <v>72</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="O11" t="s">
         <v>73</v>
       </c>
       <c r="P11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
@@ -1626,52 +1850,52 @@
         <v>74</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>139</v>
+        <v>30053</v>
       </c>
       <c r="F12" t="s">
         <v>76</v>
       </c>
       <c r="G12">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>595</v>
       </c>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="L12" t="s">
         <v>78</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="O12" t="s">
         <v>79</v>
       </c>
       <c r="P12">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="Q12">
-        <v>142</v>
+        <v>31733</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
@@ -1679,78 +1903,78 @@
         <v>80</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>81</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>2689</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
       </c>
       <c r="G13">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="L13" t="s">
         <v>84</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="O13" t="s">
         <v>85</v>
       </c>
       <c r="P13">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="Q13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>1297903</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>
       </c>
       <c r="G14">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="I14" t="s">
         <v>89</v>
@@ -1759,139 +1983,139 @@
         <v>11</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="L14" t="s">
         <v>90</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="O14" t="s">
         <v>91</v>
       </c>
       <c r="P14">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="Q14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1299290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>92</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>93</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>58</v>
+        <v>1042803</v>
       </c>
       <c r="F15" t="s">
         <v>94</v>
       </c>
       <c r="G15">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="I15" t="s">
         <v>95</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="L15" t="s">
         <v>96</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="O15" t="s">
         <v>97</v>
       </c>
       <c r="P15">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q15">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1044152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>98</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>99</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>236</v>
+        <v>984317</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
       </c>
       <c r="G16">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="I16" t="s">
         <v>101</v>
       </c>
       <c r="J16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="O16" t="s">
         <v>103</v>
       </c>
       <c r="P16">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q16">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+        <v>986141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>104</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>105</v>
@@ -1900,25 +2124,25 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>449527</v>
       </c>
       <c r="F17" t="s">
         <v>106</v>
       </c>
       <c r="G17">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="I17" t="s">
         <v>107</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="L17" t="s">
         <v>108</v>
@@ -1927,24 +2151,24 @@
         <v>17</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="O17" t="s">
         <v>109</v>
       </c>
       <c r="P17">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+        <v>451045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>110</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>111</v>
@@ -1953,467 +2177,997 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>475</v>
+        <v>1963056</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="I18" t="s">
         <v>113</v>
       </c>
       <c r="J18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="L18" t="s">
         <v>114</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="O18" t="s">
         <v>115</v>
       </c>
       <c r="P18">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q18">
-        <v>476</v>
+        <v>1964924</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="">
       <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
         <v>117</v>
       </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>63887</v>
+      </c>
+      <c r="F19" t="s">
         <v>118</v>
       </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>54</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19">
+        <v>35</v>
+      </c>
+      <c r="H19">
+        <v>1850</v>
+      </c>
+      <c r="I19" t="s">
         <v>119</v>
       </c>
-      <c r="G19">
-        <v>30</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>1065</v>
+      </c>
+      <c r="L19" t="s">
         <v>120</v>
       </c>
-      <c r="J19">
-        <v>14</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>694</v>
+      </c>
+      <c r="O19" t="s">
         <v>121</v>
       </c>
-      <c r="M19">
-        <v>10</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>122</v>
-      </c>
       <c r="P19">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Q19">
-        <v>55</v>
+        <v>67498</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="">
       <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
         <v>123</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>124</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20">
-        <v>93</v>
+        <v>110146</v>
       </c>
       <c r="F20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>815</v>
+      </c>
+      <c r="I20" t="s">
         <v>125</v>
       </c>
-      <c r="G20">
-        <v>43</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>323</v>
+      </c>
+      <c r="L20" t="s">
         <v>126</v>
       </c>
-      <c r="J20">
-        <v>8</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="M20">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>241</v>
+      </c>
+      <c r="O20" t="s">
         <v>127</v>
       </c>
-      <c r="M20">
-        <v>13</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" t="s">
-        <v>128</v>
-      </c>
       <c r="P20">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q20">
-        <v>94</v>
+        <v>111527</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="">
       <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>129</v>
       </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>507394</v>
+      </c>
+      <c r="F21" t="s">
         <v>130</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>170</v>
-      </c>
-      <c r="F21" t="s">
-        <v>131</v>
       </c>
       <c r="G21">
         <v>29</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="I21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="K21">
+        <v>332</v>
+      </c>
+      <c r="L21" t="s">
         <v>132</v>
       </c>
-      <c r="J21">
-        <v>8</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="M21">
+        <v>13</v>
+      </c>
+      <c r="N21">
+        <v>235</v>
+      </c>
+      <c r="O21" t="s">
         <v>133</v>
       </c>
-      <c r="M21">
-        <v>16</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>134</v>
-      </c>
       <c r="P21">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q21">
-        <v>171</v>
+        <v>508500</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="">
       <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>135</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>136</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>16334</v>
       </c>
       <c r="F22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22">
+        <v>32</v>
+      </c>
+      <c r="H22">
+        <v>1411</v>
+      </c>
+      <c r="I22" t="s">
         <v>137</v>
       </c>
-      <c r="G22">
-        <v>30</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22">
+        <v>15</v>
+      </c>
+      <c r="K22">
+        <v>861</v>
+      </c>
+      <c r="L22" t="s">
         <v>138</v>
-      </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>139</v>
       </c>
       <c r="M22">
         <v>13</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="O22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P22">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Q22">
-        <v>55</v>
+        <v>19240</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="">
       <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
         <v>141</v>
       </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>13091</v>
+      </c>
+      <c r="F23" t="s">
         <v>142</v>
       </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>89</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>818</v>
+      </c>
+      <c r="I23" t="s">
         <v>143</v>
       </c>
-      <c r="G23">
-        <v>23</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>372</v>
+      </c>
+      <c r="L23" t="s">
         <v>144</v>
       </c>
-      <c r="J23">
-        <v>9</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="M23">
+        <v>11</v>
+      </c>
+      <c r="N23">
+        <v>267</v>
+      </c>
+      <c r="O23" t="s">
         <v>145</v>
       </c>
-      <c r="M23">
-        <v>15</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" t="s">
-        <v>146</v>
-      </c>
       <c r="P23">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q23">
-        <v>90</v>
+        <v>14549</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="">
       <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
         <v>147</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>148</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>5633</v>
       </c>
       <c r="F24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>795</v>
+      </c>
+      <c r="I24" t="s">
         <v>149</v>
       </c>
-      <c r="G24">
-        <v>36</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>384</v>
+      </c>
+      <c r="L24" t="s">
         <v>150</v>
       </c>
-      <c r="J24">
-        <v>7</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="M24">
+        <v>17</v>
+      </c>
+      <c r="N24">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
         <v>151</v>
       </c>
-      <c r="M24">
-        <v>15</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
-        <v>152</v>
-      </c>
       <c r="P24">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>99579</v>
+      </c>
+      <c r="F25" t="s">
         <v>154</v>
       </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>566</v>
+      </c>
+      <c r="I25" t="s">
         <v>155</v>
       </c>
-      <c r="G25">
-        <v>31</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>321</v>
+      </c>
+      <c r="L25" t="s">
         <v>156</v>
       </c>
-      <c r="J25">
-        <v>11</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="M25">
+        <v>12</v>
+      </c>
+      <c r="N25">
+        <v>230</v>
+      </c>
+      <c r="O25" t="s">
         <v>157</v>
       </c>
-      <c r="M25">
-        <v>14</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>158</v>
-      </c>
       <c r="P25">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>100698</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="">
       <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
         <v>159</v>
       </c>
-      <c r="B26">
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>128015</v>
+      </c>
+      <c r="F26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26">
+        <v>29</v>
+      </c>
+      <c r="H26">
+        <v>1581</v>
+      </c>
+      <c r="I26" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>563</v>
+      </c>
+      <c r="L26" t="s">
+        <v>162</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>519</v>
+      </c>
+      <c r="O26" t="s">
+        <v>163</v>
+      </c>
+      <c r="P26">
+        <v>63</v>
+      </c>
+      <c r="Q26">
+        <v>130678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="">
+      <c r="A27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>71239</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>820</v>
+      </c>
+      <c r="I27" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>666</v>
+      </c>
+      <c r="L27" t="s">
+        <v>168</v>
+      </c>
+      <c r="M27">
+        <v>14</v>
+      </c>
+      <c r="N27">
+        <v>454</v>
+      </c>
+      <c r="O27" t="s">
+        <v>169</v>
+      </c>
+      <c r="P27">
+        <v>61</v>
+      </c>
+      <c r="Q27">
+        <v>73181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>1069</v>
+      </c>
+      <c r="I28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>322</v>
+      </c>
+      <c r="L28" t="s">
+        <v>171</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>359</v>
+      </c>
+      <c r="O28" t="s">
+        <v>172</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>117010</v>
+      </c>
+      <c r="F29" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29">
+        <v>35</v>
+      </c>
+      <c r="H29">
+        <v>1052</v>
+      </c>
+      <c r="I29" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>676</v>
+      </c>
+      <c r="L29" t="s">
+        <v>177</v>
+      </c>
+      <c r="M29">
+        <v>16</v>
+      </c>
+      <c r="N29">
+        <v>1010</v>
+      </c>
+      <c r="O29" t="s">
+        <v>178</v>
+      </c>
+      <c r="P29">
+        <v>69</v>
+      </c>
+      <c r="Q29">
+        <v>119750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="">
+      <c r="A30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26">
+      <c r="C30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>133987</v>
+      </c>
+      <c r="F30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30">
+        <v>31</v>
+      </c>
+      <c r="H30">
+        <v>1300</v>
+      </c>
+      <c r="I30" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30">
+        <v>14</v>
+      </c>
+      <c r="K30">
+        <v>528</v>
+      </c>
+      <c r="L30" t="s">
+        <v>183</v>
+      </c>
+      <c r="M30">
+        <v>16</v>
+      </c>
+      <c r="N30">
+        <v>417</v>
+      </c>
+      <c r="O30" t="s">
+        <v>184</v>
+      </c>
+      <c r="P30">
+        <v>68</v>
+      </c>
+      <c r="Q30">
+        <v>136232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="">
+      <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>36331</v>
+      </c>
+      <c r="F31" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31">
+        <v>17</v>
+      </c>
+      <c r="H31">
+        <v>1532</v>
+      </c>
+      <c r="I31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>685</v>
+      </c>
+      <c r="L31" t="s">
+        <v>189</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>815</v>
+      </c>
+      <c r="O31" t="s">
+        <v>190</v>
+      </c>
+      <c r="P31">
         <v>43</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>162</v>
-      </c>
-      <c r="J26">
-        <v>9</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>163</v>
-      </c>
-      <c r="M26">
-        <v>17</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>164</v>
-      </c>
-      <c r="P26">
-        <v>75</v>
-      </c>
-      <c r="Q26">
-        <v>60</v>
+      <c r="Q31">
+        <v>39364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="">
+      <c r="A32" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>271009</v>
+      </c>
+      <c r="F32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>1723</v>
+      </c>
+      <c r="I32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>835</v>
+      </c>
+      <c r="L32" t="s">
+        <v>195</v>
+      </c>
+      <c r="M32">
+        <v>16</v>
+      </c>
+      <c r="N32">
+        <v>676</v>
+      </c>
+      <c r="O32" t="s">
+        <v>196</v>
+      </c>
+      <c r="P32">
+        <v>63</v>
+      </c>
+      <c r="Q32">
+        <v>274245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>258796</v>
+      </c>
+      <c r="F33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <v>1298</v>
+      </c>
+      <c r="I33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J33">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>445</v>
+      </c>
+      <c r="L33" t="s">
+        <v>201</v>
+      </c>
+      <c r="M33">
+        <v>15</v>
+      </c>
+      <c r="N33">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>202</v>
+      </c>
+      <c r="P33">
+        <v>65</v>
+      </c>
+      <c r="Q33">
+        <v>260848</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>314706</v>
+      </c>
+      <c r="F34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <v>818</v>
+      </c>
+      <c r="I34" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>858</v>
+      </c>
+      <c r="L34" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34">
+        <v>12</v>
+      </c>
+      <c r="N34">
+        <v>352</v>
+      </c>
+      <c r="O34" t="s">
+        <v>208</v>
+      </c>
+      <c r="P34">
+        <v>61</v>
+      </c>
+      <c r="Q34">
+        <v>316736</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="">
+      <c r="A35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>137861</v>
+      </c>
+      <c r="F35" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35">
+        <v>37</v>
+      </c>
+      <c r="H35">
+        <v>2265</v>
+      </c>
+      <c r="I35" t="s">
+        <v>212</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
+      </c>
+      <c r="K35">
+        <v>907</v>
+      </c>
+      <c r="L35" t="s">
+        <v>213</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35">
+        <v>662</v>
+      </c>
+      <c r="O35" t="s">
+        <v>214</v>
+      </c>
+      <c r="P35">
+        <v>70</v>
+      </c>
+      <c r="Q35">
+        <v>141696</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="">
+      <c r="A36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>726899</v>
+      </c>
+      <c r="F36" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36">
+        <v>32</v>
+      </c>
+      <c r="H36">
+        <v>572</v>
+      </c>
+      <c r="I36" t="s">
+        <v>218</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
+      <c r="K36">
+        <v>907</v>
+      </c>
+      <c r="L36" t="s">
+        <v>219</v>
+      </c>
+      <c r="M36">
+        <v>16</v>
+      </c>
+      <c r="N36">
+        <v>976</v>
+      </c>
+      <c r="O36" t="s">
+        <v>220</v>
+      </c>
+      <c r="P36">
+        <v>66</v>
+      </c>
+      <c r="Q36">
+        <v>729355</v>
       </c>
     </row>
   </sheetData>

--- a/src/cfop/analysis.xlsx
+++ b/src/cfop/analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="257">
   <si>
     <t>cross moves</t>
     <phoneticPr fontId="1"/>
@@ -897,6 +897,150 @@
   </si>
   <si>
     <t>R D B U R B' F2 U' R' U2 R U' R' U R L F' L' F U' L' U L U' L U' L' U L U L' U' R U R' U' R U R' U L F L' R U R' U' L F' L' R U R' F' U' F R U R' F R' F' R2 U2 R' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R B2 D2 R2 B L2 U' D2 R2 L' B' L2 B2 R L R U2 L2 D2 L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L R B' R D B2 F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' B U B' L U' L' R U R' U R U R' U L U L' U' L U2 L' R' F L F' L' F' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U B' R B U B' U' R' U B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L R B' R D B2 F U' B U B' L U' L' R U R' U R U R' U L U L' U' L U2 L' R' F L F' L' F' R U B' R B U B' U' R' U B U' R U R' U' D R2 U' R U' R' U R' U R2 D' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L' F' R B2 D F R2 L' B' L' B' U F2 D2 R B F D B2 D'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' L' F' L' B L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 L' U L F' L F U' L' U L U' L' R U R' R U R' U2 R' U R U2 B U B' R U' R' U R U R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' L F R' F' L' F R F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U R' F' U' F R U R' F R' F' R2 U2 R' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' L' F' L' B L U2 L' U L F' L F U' L' U L U' L' R U U R' U2 R' U R U2 B U B' R U' R' U R U R' U' L F R' F' L' F R F' R U R' F' U' F R U R' F R' F' R2 U2 R' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2 F R' D L2 R D' R2 B2 F' D' B F' U R U2 D' B' U' L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R D' R D F R' L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 L' U L F' L F L' U' L U L' U' L U L' R U R' U2 R' F' U' F U2 R R U' R' U R U R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R' U' R U' R' U2 R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R2 U R' U R' U' R U' R2 D U' R' U R D' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R D' R D F R' L U2 L' U L F' L F L' U' L U L' U' L U L' R U R' U2 R' F' U' F U2 R2 U' R' U R U R' U R' U' R U' R' U2 R U2 R2 U R' U R' U' R U' R2 D U' R' U R D' U2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 B2 D' L' U F U2 L' B' F D R U B D2 U2 B2 L F L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B L F R D R B' R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U R2 U R U R' U F' U F R U' R' U R L U' L' U F U2 R U R' U F' R U' R' U R U R' U' L U L' U L U' L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U F R' F' U' F U R U' F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U R U2 R' U' R U2 L' U R' U' L U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B L F R D R B' R2 U R2 U R U R' U F' U F R U' R' U R L U' L' U F U2 R U R' U F' R U' R' U R U R' U' L U L' U L U' L' U F R' F' U' F U R U' F' U R U2 R' U' R U2 L' U R' U' L U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2 F' L R2 B' F' L D L2 U2 F2 D2 R' L' F B D2 B R L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F' D' F' D' F R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 F R U2 R' F' U L U' L' U R' U R U2 B U B' L F U F' L' U L U L' U' R' F R F' R U' R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U R' U R U' R' U R U2 R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R U' R U R U R U' R' U' R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F' D' F' D' F R' U2 F R U2 R' F' U L U' L' U R' U R U2 B U B' L F U F' L' U L U L' U' R' F R F' R U' U R' U R U' R' U R U2 U' R U R U R U' R' U' R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F' R B' L R' B L' B R F R F' L2 B2 D F B2 L2 R' U'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' D' R D' B R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R' F' U' F U2 R R U2 R' U R' F R F' U L' U2 L U L' U' L U L U2 L' U' L U L'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U' F U2 F R' F' R U R U R' U F'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U2 R' U2 R U2 R' F R U R' U' R' F' R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B' D' R D' B F' U' F U2 R2 U2 R' U R' F R F' U L' U2 L U L' U' L U L U2 L' U' L U L' U' F U2 F R' F' R U R U R' U F' U2 R' U2 R U2 R' F R U R' U' R' F' R2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1235,7 +1379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
@@ -1394,7 +1538,7 @@
         <v>970</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="J3">
         <v>8</v>
@@ -3168,6 +3312,324 @@
       </c>
       <c r="Q36">
         <v>729355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="">
+      <c r="A37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>1370372</v>
+      </c>
+      <c r="F37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37">
+        <v>29</v>
+      </c>
+      <c r="H37">
+        <v>2984</v>
+      </c>
+      <c r="I37" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>2142</v>
+      </c>
+      <c r="L37" t="s">
+        <v>225</v>
+      </c>
+      <c r="M37">
+        <v>17</v>
+      </c>
+      <c r="N37">
+        <v>808</v>
+      </c>
+      <c r="O37" t="s">
+        <v>226</v>
+      </c>
+      <c r="P37">
+        <v>63</v>
+      </c>
+      <c r="Q37">
+        <v>1376307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="">
+      <c r="A38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>29817</v>
+      </c>
+      <c r="F38" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38">
+        <v>34</v>
+      </c>
+      <c r="H38">
+        <v>1222</v>
+      </c>
+      <c r="I38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>872</v>
+      </c>
+      <c r="L38" t="s">
+        <v>231</v>
+      </c>
+      <c r="M38">
+        <v>16</v>
+      </c>
+      <c r="N38">
+        <v>989</v>
+      </c>
+      <c r="O38" t="s">
+        <v>232</v>
+      </c>
+      <c r="P38">
+        <v>63</v>
+      </c>
+      <c r="Q38">
+        <v>32901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="">
+      <c r="A39" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>104129</v>
+      </c>
+      <c r="F39" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39">
+        <v>33</v>
+      </c>
+      <c r="H39">
+        <v>1066</v>
+      </c>
+      <c r="I39" t="s">
+        <v>236</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>406</v>
+      </c>
+      <c r="L39" t="s">
+        <v>237</v>
+      </c>
+      <c r="M39">
+        <v>17</v>
+      </c>
+      <c r="N39">
+        <v>395</v>
+      </c>
+      <c r="O39" t="s">
+        <v>238</v>
+      </c>
+      <c r="P39">
+        <v>64</v>
+      </c>
+      <c r="Q39">
+        <v>105997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="">
+      <c r="A40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>655990</v>
+      </c>
+      <c r="F40" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40">
+        <v>42</v>
+      </c>
+      <c r="H40">
+        <v>713</v>
+      </c>
+      <c r="I40" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>335</v>
+      </c>
+      <c r="L40" t="s">
+        <v>243</v>
+      </c>
+      <c r="M40">
+        <v>13</v>
+      </c>
+      <c r="N40">
+        <v>534</v>
+      </c>
+      <c r="O40" t="s">
+        <v>244</v>
+      </c>
+      <c r="P40">
+        <v>72</v>
+      </c>
+      <c r="Q40">
+        <v>657574</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="">
+      <c r="A41" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>63190</v>
+      </c>
+      <c r="F41" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41">
+        <v>35</v>
+      </c>
+      <c r="H41">
+        <v>2507</v>
+      </c>
+      <c r="I41" t="s">
+        <v>248</v>
+      </c>
+      <c r="J41">
+        <v>11</v>
+      </c>
+      <c r="K41">
+        <v>829</v>
+      </c>
+      <c r="L41" t="s">
+        <v>249</v>
+      </c>
+      <c r="M41">
+        <v>11</v>
+      </c>
+      <c r="N41">
+        <v>753</v>
+      </c>
+      <c r="O41" t="s">
+        <v>250</v>
+      </c>
+      <c r="P41">
+        <v>59</v>
+      </c>
+      <c r="Q41">
+        <v>67281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="">
+      <c r="A42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>153348</v>
+      </c>
+      <c r="F42" t="s">
+        <v>253</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
+      <c r="H42">
+        <v>645</v>
+      </c>
+      <c r="I42" t="s">
+        <v>254</v>
+      </c>
+      <c r="J42">
+        <v>13</v>
+      </c>
+      <c r="K42">
+        <v>399</v>
+      </c>
+      <c r="L42" t="s">
+        <v>255</v>
+      </c>
+      <c r="M42">
+        <v>14</v>
+      </c>
+      <c r="N42">
+        <v>279</v>
+      </c>
+      <c r="O42" t="s">
+        <v>256</v>
+      </c>
+      <c r="P42">
+        <v>60</v>
+      </c>
+      <c r="Q42">
+        <v>154672</v>
       </c>
     </row>
   </sheetData>
